--- a/pred_ohlcv/54_21/2020-01-14 WAXP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 WAXP ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>253946.2718146601</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>253946.2718146601</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>334042.9296</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>379539.4313000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>439238.4898</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>439238.4898</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>483573.5098000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>722506.3501</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>734622.3501</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>614543.3501</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>704016.9785000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>704016.9785000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>704016.9785000001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>714016.9785000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>713133.6436000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>412138.2257927501</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>416138.2257927501</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>412138.2257927501</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>413257.2571927501</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>572868.5464671701</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>572868.5464671701</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>855839.1308927501</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>855839.1308927501</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>882422.9568927501</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>881422.9568927501</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>937563.0060927501</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>937563.0060927501</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>877867.7116002601</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>878140.2821002601</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>878140.2821002601</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>892041.7619002601</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1227907.91797323</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1214649.76716733</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1161662.89656733</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1173885.949567331</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1173885.949567331</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1070672.776067331</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1070672.776067331</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1073136.85026733</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>969997.5303673302</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>993667.6276673302</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1051460.49426733</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1085654.77976733</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1085654.77976733</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1081535.77976733</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>1082300.77976733</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1082300.77976733</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1049822.77976733</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1049822.77976733</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1166486.64826733</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1163968.71486733</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1198993.71486733</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1189936.70926733</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1182355.62486733</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1159446.82326733</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>1159471.82326733</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-170162.9722939399</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-119060.9197939399</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-119914.4402939399</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-119914.4402939399</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-117836.4368939399</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-133186.5061939399</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-118986.5061939399</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-11577.72875810989</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-11577.72875810989</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 WAXP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 WAXP ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>192133.3376000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>253946.2718146601</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>253946.2718146601</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>334042.9296</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>380639.4313000001</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>379539.4313000001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>380669.4313000001</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>439238.4898</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>483573.5098000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>473782.1594000001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>722506.3501</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>734622.3501</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>614543.3501</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>704016.9785000001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>704016.9785000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>704016.9785000001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>714016.9785000001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>713133.6436000001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>412138.2257927501</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>416138.2257927501</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>412138.2257927501</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>413257.2571927501</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>572868.5464671701</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>572868.5464671701</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>855839.1308927501</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>855839.1308927501</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>882422.9568927501</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>881422.9568927501</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>937563.0060927501</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>937563.0060927501</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>877867.7116002601</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>878140.2821002601</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>878140.2821002601</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>892041.7619002601</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>1749535.80767323</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>1380053.19227323</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>1227907.91797323</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1236421.32677323</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>1260329.54597323</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>1214649.76716733</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1161662.89656733</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1173885.949567331</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1173885.949567331</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1068153.76876733</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>1031193.85096733</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>969997.5303673302</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>993667.6276673302</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>1051460.49426733</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1085654.77976733</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>1085654.77976733</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>1081535.77976733</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1049822.77976733</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-170162.9722939399</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-119060.9197939399</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-119914.4402939399</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-119914.4402939399</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-117836.4368939399</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-133186.5061939399</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-118986.5061939399</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-11577.72875810989</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-11577.72875810989</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
